--- a/data/trans_bre/P5_3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_3-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,26</t>
+          <t>-3,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,18%</t>
+          <t>-7,19%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,2%</t>
+          <t>-10,26%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 7,35</t>
+          <t>-13,16; 7,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 8,33</t>
+          <t>-14,56; 8,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-32,61; 25,29</t>
+          <t>-33,4; 27,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-33,68; 30,08</t>
+          <t>-35,82; 30,94</t>
         </is>
       </c>
     </row>
@@ -646,17 +646,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>59,94%</t>
+          <t>59,96%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>11,65%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 17,0</t>
+          <t>1,24; 16,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 10,59</t>
+          <t>-7,28; 10,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,27; 143,52</t>
+          <t>5,41; 150,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,39; 78,62</t>
+          <t>-30,99; 78,68</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>8,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>31,32%</t>
+          <t>49,24%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 11,12</t>
+          <t>-2,75; 11,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 13,91</t>
+          <t>1,84; 15,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 67,64</t>
+          <t>-12,83; 72,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 97,47</t>
+          <t>8,89; 116,19</t>
         </is>
       </c>
     </row>
@@ -766,17 +766,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>13,44%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 8,98</t>
+          <t>-4,32; 9,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 9,51</t>
+          <t>-4,22; 9,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 41,49</t>
+          <t>-15,39; 44,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,66; 48,82</t>
+          <t>-15,37; 50,2</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,74</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-15,72%</t>
+          <t>-17,89%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 6,09</t>
+          <t>-10,14; 5,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 3,7</t>
+          <t>-13,49; 3,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-33,28; 27,14</t>
+          <t>-33,13; 24,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-38,76; 15,32</t>
+          <t>-39,27; 14,01</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,72</t>
+          <t>-5,09</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-12,7%</t>
+          <t>-16,67%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 5,49</t>
+          <t>-10,24; 5,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 5,51</t>
+          <t>-13,62; 4,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,62; 22,68</t>
+          <t>-29,62; 22,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-39,67; 24,19</t>
+          <t>-38,06; 17,81</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>2,23%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 4,85</t>
+          <t>-1,6; 5,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 3,87</t>
+          <t>-3,0; 4,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 20,87</t>
+          <t>-6,18; 22,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 16,39</t>
+          <t>-10,91; 17,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_3-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,45</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,68</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-7,19%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-10,26%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.446133207705603</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.698162353192296</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.0719456890333529</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.0750681215163413</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,16; 7,91</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-14,56; 8,73</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-33,4; 27,01</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-35,82; 30,94</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-13.15906254668793</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-13.99019976027216</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.334047584363209</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.3428870029189655</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.913315078338631</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.14696415838729</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.2700678231018487</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.3505726673007443</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>9,1</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,11</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>59,96%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>11,65%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>1,24; 16,85</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,28; 10,33</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5,41; 150,77</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-30,99; 78,68</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>9.098660817505261</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.627861276436657</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.5996432209598136</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.08588611862045192</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,05</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,63</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>19,93%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>49,24%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1.235003300661684</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-8.160145378129917</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.05413295886667139</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.3242152721387844</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,75; 11,48</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,84; 15,68</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-12,83; 72,2</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>8,89; 116,19</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>16.84999534737671</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>10.13511146065383</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.507698775883982</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.6899243576562245</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,43</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,18</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>9,68%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>13,44%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>4.054895772231132</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>8.235552438906968</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.1992598350714314</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.4686340041322158</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,32; 9,48</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,22; 9,92</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-15,39; 44,16</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-15,37; 50,2</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.747928386598528</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1.402767269593963</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.1282961546363768</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0.05793134076255666</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>11.48311501131803</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>15.80433104631687</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.7220106424273715</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.187621103191647</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-2,13</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-5,38</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-7,72%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-17,89%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-10,14; 5,72</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-13,49; 3,45</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-33,13; 24,31</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-39,27; 14,01</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.434768765178847</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.225348895581001</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.09675825292044055</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.1376399344468766</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-2,77</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-5,09</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-9,32%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-16,67%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.315636823538014</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.962145264503453</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.153864879576531</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.149479847373459</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-10,24; 5,35</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-13,62; 4,29</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-29,62; 22,13</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-38,06; 17,81</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.480989113640739</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>9.998258053893252</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.4415719757181112</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.5148633234298304</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,6</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>6,4%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>2,23%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-2.131309191024727</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-5.020763745518153</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>-0.07724126861148845</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>-0.1646773232142122</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-1,6; 5,09</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-3,0; 4,09</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-6,18; 22,38</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-10,91; 17,83</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-10.13866764615357</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-13.49592234702756</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.3312755913685581</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.3833724556521526</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>5.717038253946003</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>4.213518789477543</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.2430573878722289</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.1648621667101205</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-2.770506221265356</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-5.178737884157647</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.09324632493367914</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.1708371045425558</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-10.24041336830516</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-14.64219262760496</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2962226355431076</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.4046115205889637</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>5.353122588953632</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>4.341527516296326</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.2213473621401539</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.179963986274277</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.599292046244885</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.6325637077073787</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.06401207373186345</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.02489525703649438</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-1.601303452886254</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.01943018287217</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.06180951916948783</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.1086981267096619</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>5.092147577391554</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>4.390576909530627</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.2237712691390047</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.1931904626793704</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
